--- a/Mifos Automation Excels/Client/2669-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-REPAY-AccCL1stFEB-WRITEOFF-ON-2ndFEB-Newcreateloan1.xlsx
+++ b/Mifos Automation Excels/Client/2669-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-REPAY-AccCL1stFEB-WRITEOFF-ON-2ndFEB-Newcreateloan1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -862,8 +862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,8 +921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -970,7 +970,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
-        <v>747.98</v>
+        <v>297.55</v>
       </c>
       <c r="B3" s="14">
         <v>0</v>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="14">
-        <v>747.98</v>
+        <v>297.55</v>
       </c>
       <c r="E3" s="14">
         <v>0</v>
